--- a/biology/Zoologie/Anthrenus_pimpinellae/Anthrenus_pimpinellae.xlsx
+++ b/biology/Zoologie/Anthrenus_pimpinellae/Anthrenus_pimpinellae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthrenus pimpinellae est une espèce d'insectes coléoptères, de la famille des Dermestidés, sous-famille des Megatominae, de la tribu des Anthrenini et du genre Anthrenus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille d'environ 3-4 mm. Les élytres de couleur noire avec des écailles blanches et brunes.
 			Les deux faces
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago floricole sur Apiacées et Astéracées, larves dans des nids de chenilles.
 </t>
@@ -574,12 +590,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'espèce Anthrenus pimpinellae a été décrite par l’entomologiste danois Johan Christian Fabricius en 1775 sous le nom initial de Byrrhus pimpinellae.
-Il existe un sous-genre dont le nom complet est  Anthrenus (Anthrenus) pimpinellae
-Synonymie
-Byrrhus pimpinellae Fabricius, 1775
+Il existe un sous-genre dont le nom complet est  Anthrenus (Anthrenus) pimpinellae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthrenus_pimpinellae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthrenus_pimpinellae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Byrrhus pimpinellae Fabricius, 1775
 Anthrenus scrophulariae Fourcroy, 1785
 Anthrenus pimpinellae var. dimidiatus Hauser, 1894</t>
         </is>
